--- a/Anki.xlsx
+++ b/Anki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\varios\descargas\AdminBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC399EA-F5B1-4AEF-A6AE-0D36FB62CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A659AD06-F93C-4A33-95E0-6CDAB887FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F874B9A1-0D45-4111-92AF-50658447EC70}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="356">
   <si>
     <t>Front</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>select distinct dbms_rowid.rowid_number(rowid) from EXAMEN;</t>
-  </si>
-  <si>
-    <t>NOTA: Todos los comandos soicitados son para una base de datos que tiene activada la opción de gestión automática de nombres</t>
   </si>
   <si>
     <t>Agregar el TABLESPACE EXAMEN un DATAFILE de 100Mb</t>
@@ -451,9 +448,6 @@
     <t xml:space="preserve">library caché </t>
   </si>
   <si>
-    <t>Cuando un SQL statement (sentencia SQL) se ejecuta por primera vez, Oracle realiza varias tareas, incluyendo el análisis del SQL, la generación del plan de ejecución óptimo y la búsqueda en el Library Cache para ver si ya existe un plan para esa sentencia en particular. Si existe, Oracle reutiliza el plan almacenado en lugar de generar uno nuevo. Esto es beneficioso para el rendimiento, ya que evita la necesidad de generar un nuevo plan cada vez que se ejecuta la misma sentencia SQL.</t>
-  </si>
-  <si>
     <t>Proceso de BACKGROUND encargado de descargar el contenido del log buffer</t>
   </si>
   <si>
@@ -893,12 +887,302 @@
   <si>
     <t>Tamaño de bloque de base de datos en la versión 11g</t>
   </si>
+  <si>
+    <t>Apuntes</t>
+  </si>
+  <si>
+    <t>Examen anterior                                              NOTA: Todos los comandos soicitados son para una base de datos que tiene activada la opción de gestión automática de nombres</t>
+  </si>
+  <si>
+    <t>Que significa el acrónimo SGA:</t>
+  </si>
+  <si>
+    <t>SYSTEM GLOBAL AREA</t>
+  </si>
+  <si>
+    <t>Que significa el acrónimo SMON:</t>
+  </si>
+  <si>
+    <t>SYSTEM MONITOR PROCESS</t>
+  </si>
+  <si>
+    <t>Que significa el acrónimo PMOM:</t>
+  </si>
+  <si>
+    <t>Significado del acrónimo SLA:</t>
+  </si>
+  <si>
+    <t>Service License Agreement</t>
+  </si>
+  <si>
+    <t>Comando SQL-PLUS que muestra la distribución de memoria del SGA:</t>
+  </si>
+  <si>
+    <t>show sga</t>
+  </si>
+  <si>
+    <t>Cuando se dispara el proceso de BACKGROUND DBW0:</t>
+  </si>
+  <si>
+    <t>durante el arranque de la instancia de Oracle</t>
+  </si>
+  <si>
+    <t>Tamaño por default de un extent:</t>
+  </si>
+  <si>
+    <t>64 Kb</t>
+  </si>
+  <si>
+    <t>Tamaño mínimo de la Unidad de Alojamiento (AU) en el +ASM:</t>
+  </si>
+  <si>
+    <t>Proceso de BACKGROUND encargado de monitorear el TIME OUT de las sesiones IDLE:</t>
+  </si>
+  <si>
+    <t>Comando para crear el PASSWORD FILE:</t>
+  </si>
+  <si>
+    <t>Orapwd</t>
+  </si>
+  <si>
+    <t>Tamaño máximo de una unidad de alojamiento ASM:</t>
+  </si>
+  <si>
+    <t>64 Mb</t>
+  </si>
+  <si>
+    <t>comando para crear un SPIFILE a partir del PFILE desde SQLPLUS:</t>
+  </si>
+  <si>
+    <t>Vista dinámica que muestra información de los usuarios conectados en la base de datos:</t>
+  </si>
+  <si>
+    <t>Menciona el área del SHARED_POOL que procesa las sentencias SQL:</t>
+  </si>
+  <si>
+    <t>LIBRARY CACHE</t>
+  </si>
+  <si>
+    <t>Estructura de memoria que registra los procesos de respaldo y recuperación:</t>
+  </si>
+  <si>
+    <t>LARGE POOL</t>
+  </si>
+  <si>
+    <t>Comando para SWITCHAR alter system:</t>
+  </si>
+  <si>
+    <t>¿Qué grupos de los redo log respalda archiever?:</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>Ubicación del parameter file:</t>
+  </si>
+  <si>
+    <t>$ORACLE_HOME/dbs</t>
+  </si>
+  <si>
+    <t>Comando para entrar a ASM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asmcmd </t>
+  </si>
+  <si>
+    <t>Comando para mostrar el parámetro sga max:</t>
+  </si>
+  <si>
+    <t>show parameter sga</t>
+  </si>
+  <si>
+    <t>¿Cuáles son las operaciones SQL y cómo se clasifican?</t>
+  </si>
+  <si>
+    <t>Proceso que realiza la recuperación del proceso cuando falla un proceso de usuario:</t>
+  </si>
+  <si>
+    <t>Usuario esquema o propietario, usuario de conexión</t>
+  </si>
+  <si>
+    <t>Comando del instalador universal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./runinstaller </t>
+  </si>
+  <si>
+    <t>Significado de las siglas CMMI</t>
+  </si>
+  <si>
+    <t>Integración de modelos de madurez de capacidades</t>
+  </si>
+  <si>
+    <t>¿Cuál es la diferencia entre small file y bigfile?</t>
+  </si>
+  <si>
+    <t>Small file soprta hasta 1023 datafiles y bigfile soporta 1 file de 124Terabite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoAnki: </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6MZmYGCLOkA</t>
+  </si>
+  <si>
+    <t>Actualización 30/09/2023</t>
+  </si>
+  <si>
+    <t>PROCESS MONITOR. PMON es un proceso de fondo vital para el mantenimiento y la integridad de una instancia de Oracle</t>
+  </si>
+  <si>
+    <t>create spifile from pfile;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT username FROM v$session WHERE username IS NOT NULL;
+</t>
+  </si>
+  <si>
+    <t>alter system switch logfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Cómo mostrar que se analizó una tabla?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT table_name, num_rows, last_analyzed
+FROM user_tables;
+</t>
+  </si>
+  <si>
+    <t>Comando para saber si tienes archive mode</t>
+  </si>
+  <si>
+    <t>¿Cómo ver miembros del Redolog?</t>
+  </si>
+  <si>
+    <t>select member from v$logfile;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de la vista que seleciiona información de privilegio usuarios </t>
+  </si>
+  <si>
+    <t>select * from v$pwfile_users</t>
+  </si>
+  <si>
+    <t>Comando para otorgar el privilegio de usuario sysdba</t>
+  </si>
+  <si>
+    <t>grant sysdba to hr;</t>
+  </si>
+  <si>
+    <t>Comando para quitar privilegios</t>
+  </si>
+  <si>
+    <t>revoke sysdba from hr;</t>
+  </si>
+  <si>
+    <t>¿Cuál es el tamaño del disco de bloque?</t>
+  </si>
+  <si>
+    <t>512 bytes</t>
+  </si>
+  <si>
+    <t>¿Qué datafile almacena el diccionario de datos?</t>
+  </si>
+  <si>
+    <t>system01.dbf</t>
+  </si>
+  <si>
+    <t>Guarda las imágenes viejas para poder hacer un rollback</t>
+  </si>
+  <si>
+    <t>undotbs01.dbf</t>
+  </si>
+  <si>
+    <t>Diferencia entre MOVE, DELETE y TRUNCATE</t>
+  </si>
+  <si>
+    <t>MOVE desaloja las extensiones, DELETE no las desaloja y TRUNCATE borra todo.</t>
+  </si>
+  <si>
+    <t>¿Cuántos tablespace es recomendable tener en una DB?</t>
+  </si>
+  <si>
+    <t>2 tablespace para DATA y uno para INDX</t>
+  </si>
+  <si>
+    <t>¿Lenguajes de programación que oracle acepta?</t>
+  </si>
+  <si>
+    <t>PL/SQL, C (PRO C) Y JAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCHIVE LOG LIST;
+</t>
+  </si>
+  <si>
+    <t>cat .bash_profile</t>
+  </si>
+  <si>
+    <t>Comando para ver variables de entorno</t>
+  </si>
+  <si>
+    <t>Path donde se ubica directorio base de todo lo instalado en el servidor</t>
+  </si>
+  <si>
+    <t>ORACLE_BASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comando que controla la autenticación de usuarios remotos que intentan conectarse a la base de datos utilizando el rol SYSDBA o SYSOPER</t>
+  </si>
+  <si>
+    <t>remote_login_passwordfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Muestra archivos de rastreo, su tipo y ubicación:
+</t>
+  </si>
+  <si>
+    <t>SQL &gt; show parameter dump;</t>
+  </si>
+  <si>
+    <t>¿Cuándo se crea el extend y el segmento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuando se realiza el insert de datos en la tabla</t>
+  </si>
+  <si>
+    <t>Select name from v$tablespace;</t>
+  </si>
+  <si>
+    <t>Indica los nombres de los tablespaces existentes en la BD</t>
+  </si>
+  <si>
+    <t>Comando para consultar segmentos</t>
+  </si>
+  <si>
+    <t>select segment_name 
+from user_segments;</t>
+  </si>
+  <si>
+    <t>Comando para desfragmentar una tabla (que se fragmento por el borrado de tabla):</t>
+  </si>
+  <si>
+    <t>alter table prueba move;   
+Donde prueba es el nombre de la tabla</t>
+  </si>
+  <si>
+    <t>1 Mb</t>
+  </si>
+  <si>
+    <t>Importante: La presente información ha sido previamente verificada, sien embargo, algunas preguntas/respuestas pueden estar repetidas o ser imprecisas, por lo que te recomiendo que si tienes dudas,verifiques la información. También, de encontrar algún error, te invito a dejar un comentario en el video con la fuente correspondiente para actualizar la información. :D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,15 +1220,86 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,8 +1342,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1011,21 +1384,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,18 +1487,110 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1373,721 +1908,1168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214BA77A-F6B3-47DA-8694-F0CD51E6C89E}">
-  <dimension ref="A3:D81"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B123" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="35.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" style="21" customWidth="1"/>
+    <col min="2" max="2" width="51" style="31" customWidth="1"/>
+    <col min="3" max="3" width="110.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="73.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="16" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="30" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="C15" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B47" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="171" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+      <c r="B78" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="39"/>
+      <c r="B81" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="39"/>
+      <c r="B83" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="39"/>
+      <c r="B86" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="39"/>
+      <c r="B87" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>130</v>
-      </c>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
+      <c r="B89" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="39"/>
+      <c r="B102" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="39"/>
+      <c r="B103" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="39"/>
+      <c r="B104" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="39"/>
+      <c r="B105" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="39"/>
+      <c r="B106" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="B109" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="39"/>
+      <c r="B110" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="39"/>
+      <c r="B112" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="39"/>
+      <c r="B113" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="39"/>
+      <c r="B114" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="39"/>
+      <c r="B115" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="39"/>
+      <c r="B116" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="39"/>
+      <c r="B117" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="B118" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="39"/>
+      <c r="B119" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="39"/>
+      <c r="B120" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="39"/>
+      <c r="B121" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="39"/>
+      <c r="B122" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="39"/>
+      <c r="B123" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="40"/>
+      <c r="B124" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="B128" s="42"/>
+      <c r="C128" s="43"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="11"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C131" s="13"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A80:A124"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="A47:A78"/>
+    <mergeCell ref="A4:A46"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{CD2A39EC-69AE-4869-8D13-4D2CC84D5FF6}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BBF2C692-D29F-4B0F-84EB-9DC7427E8E51}"/>
+    <hyperlink ref="B131" r:id="rId3" xr:uid="{051623CD-DEAD-42A0-8F65-497B8814238E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2102,507 +3084,507 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>115</v>
       </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="4" spans="2:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+    </row>
+    <row r="12" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="14" spans="2:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="20" spans="2:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="21" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6" t="s">
+    </row>
+    <row r="25" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="6" t="s">
+    </row>
+    <row r="29" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="32" spans="2:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="7" t="s">
+    </row>
+    <row r="35" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="2:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="2:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="6" t="s">
+    </row>
+    <row r="38" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="7" t="s">
+    </row>
+    <row r="40" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="5" t="s">
+    </row>
+    <row r="42" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="5" t="s">
+    </row>
+    <row r="43" spans="2:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="360" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="5" t="s">
+    </row>
+    <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="5" t="s">
+    </row>
+    <row r="47" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="5" t="s">
+    </row>
+    <row r="49" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="3" t="s">
+    </row>
+    <row r="50" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="3" t="s">
+    </row>
+    <row r="54" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="3" t="s">
+    </row>
+    <row r="56" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="6" t="s">
+    </row>
+    <row r="57" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="3" t="s">
+    </row>
+    <row r="59" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="3" t="s">
+    </row>
+    <row r="60" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="2:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="2:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="3" t="s">
+    </row>
+    <row r="62" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="3" t="s">
+    </row>
+    <row r="64" spans="2:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="2:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="2:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
